--- a/dorsal_AS5_DD3_part.xlsx
+++ b/dorsal_AS5_DD3_part.xlsx
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Diam. Neuron</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>post-</t>
+  </si>
+  <si>
+    <t>post-synapse</t>
+  </si>
+  <si>
+    <t>pre-synapse</t>
   </si>
 </sst>
 </file>
@@ -834,13 +840,16 @@
   <dimension ref="A1:U668"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="7" width="13.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
+    <col min="5" max="7" width="13.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
   </cols>
@@ -867,43 +876,34 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="G4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -4928,11 +4928,11 @@
         <v>0</v>
       </c>
       <c r="H135" s="16">
-        <f t="shared" ref="H135:H198" si="4">IF(G135=1,0.05,0)</f>
+        <f t="shared" ref="H135:H140" si="4">IF(G135=1,0.05,0)</f>
         <v>0</v>
       </c>
       <c r="I135" s="15">
-        <f t="shared" ref="I135:I198" si="5">IF(G135=2,0.05,0)</f>
+        <f t="shared" ref="I135:I140" si="5">IF(G135=2,0.05,0)</f>
         <v>0</v>
       </c>
     </row>
